--- a/01_interlab_comparison/01_data/Pre_processing_output.xlsx
+++ b/01_interlab_comparison/01_data/Pre_processing_output.xlsx
@@ -51848,7 +51848,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51859,1583 +51859,333 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Site</t>
+          <t>Unnamed: 0</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>FM</t>
+          <t>Site_x</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>FM_err</t>
+          <t>FM_x</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>FM_err_x</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Decimal_date</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>D14C</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>D14C_err</t>
+          <t>D14C_x</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>D14C_err_x</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>FM_y</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>FM_err_y</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>D14C_y</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>D14C_err_y</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Site_y</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B2" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>RRL</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>1.184596542</v>
-      </c>
       <c r="D2" t="n">
-        <v>0.002049582</v>
+        <v>1.213066122</v>
       </c>
       <c r="E2" t="n">
-        <v>1961</v>
+        <v>0.002039546</v>
       </c>
       <c r="F2" t="n">
-        <v>183.02</v>
+        <v>1985</v>
       </c>
       <c r="G2" t="n">
-        <v>2.05</v>
+        <v>207.94</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.213027342627884</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.002621288257892488</v>
+      </c>
+      <c r="K2" t="n">
+        <v>207.9026044167389</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.621288257892488</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Magallanes</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B3" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>RRL</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>1.191552769</v>
-      </c>
       <c r="D3" t="n">
-        <v>0.00205538</v>
+        <v>1.158695256</v>
       </c>
       <c r="E3" t="n">
-        <v>1962</v>
+        <v>0.001910439</v>
       </c>
       <c r="F3" t="n">
-        <v>189.82</v>
+        <v>1990</v>
       </c>
       <c r="G3" t="n">
-        <v>2.05</v>
+        <v>153.1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.152030609628887</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.002658695035131468</v>
+      </c>
+      <c r="K3" t="n">
+        <v>146.4699562318974</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.658695035131468</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Magallanes</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B4" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>RRL</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>1.261312597</v>
-      </c>
       <c r="D4" t="n">
-        <v>0.002222368</v>
+        <v>1.115626958</v>
       </c>
       <c r="E4" t="n">
-        <v>1963</v>
+        <v>0.001924771</v>
       </c>
       <c r="F4" t="n">
-        <v>259.33</v>
+        <v>1996</v>
       </c>
       <c r="G4" t="n">
-        <v>2.22</v>
+        <v>109.44</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.11342242888666</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.002218839638982156</v>
+      </c>
+      <c r="K4" t="n">
+        <v>107.2442262389979</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.218839638982156</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Magallanes</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B5" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>RRL</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>1.256446358</v>
-      </c>
       <c r="D5" t="n">
-        <v>0.002176798</v>
+        <v>1.095532925</v>
       </c>
       <c r="E5" t="n">
-        <v>1963</v>
+        <v>0.001902364</v>
       </c>
       <c r="F5" t="n">
-        <v>254.47</v>
+        <v>2000</v>
       </c>
       <c r="G5" t="n">
-        <v>2.17</v>
+        <v>88.93000000000001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.092790168706119</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.002507956584256657</v>
+      </c>
+      <c r="K5" t="n">
+        <v>86.20076417422263</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.507956584256657</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Magallanes</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B6" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>RRL</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>1.412904271</v>
-      </c>
       <c r="D6" t="n">
-        <v>0.002467909</v>
+        <v>1.05807432</v>
       </c>
       <c r="E6" t="n">
-        <v>1964</v>
+        <v>0.00182444</v>
       </c>
       <c r="F6" t="n">
-        <v>410.51</v>
+        <v>2008</v>
       </c>
       <c r="G6" t="n">
-        <v>2.46</v>
+        <v>50.675</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.058777861640265</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.001737785863126135</v>
+      </c>
+      <c r="K6" t="n">
+        <v>51.37563587285477</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.737785863126135</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Magallanes</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B7" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>RRL</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>1.411864476</v>
-      </c>
       <c r="D7" t="n">
-        <v>0.002455992</v>
+        <v>1.029195754333333</v>
       </c>
       <c r="E7" t="n">
-        <v>1964</v>
+        <v>0.001723851666666667</v>
       </c>
       <c r="F7" t="n">
-        <v>409.48</v>
+        <v>2015</v>
       </c>
       <c r="G7" t="n">
-        <v>2.45</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>RRL</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1.568748705</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.00276676</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1965</v>
-      </c>
-      <c r="F8" t="n">
-        <v>565.9</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2.76</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>RRL</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1.613927786</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.002854222</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1966</v>
-      </c>
-      <c r="F9" t="n">
-        <v>610.8099999999999</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2.85</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>RRL</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1.603467451</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.002728154</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1966</v>
-      </c>
-      <c r="F10" t="n">
-        <v>600.37</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2.72</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>RRL</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1.495027259</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.002608885</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1970</v>
-      </c>
-      <c r="F11" t="n">
-        <v>491.41</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>RRL</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1.213066122</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.002039546</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1985</v>
-      </c>
-      <c r="F12" t="n">
-        <v>207.94</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2.03</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>RRL</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1.158695256</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.001910439</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1990</v>
-      </c>
-      <c r="F13" t="n">
-        <v>153.1</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>RRL</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>1.115626958</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.001924771</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1996</v>
-      </c>
-      <c r="F14" t="n">
-        <v>109.44</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>RRL</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1.095070216</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.00198465</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2000</v>
-      </c>
-      <c r="F15" t="n">
-        <v>88.47</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1.97</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>RRL</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>1.095995634</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.001820078</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2000</v>
-      </c>
-      <c r="F16" t="n">
-        <v>89.39</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1.81</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>RRL</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1.05761681</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.001824058</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2008</v>
-      </c>
-      <c r="F17" t="n">
-        <v>50.22</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.81</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>RRL</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>1.05853183</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.001824822</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2008</v>
-      </c>
-      <c r="F18" t="n">
-        <v>51.13</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1.81</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>RRL</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>1.027826691</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.001907597</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2015</v>
-      </c>
-      <c r="F19" t="n">
-        <v>19.78</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1.89</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>RRL</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>1.030717321</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.00163753</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2015</v>
-      </c>
-      <c r="F20" t="n">
-        <v>22.64</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>RRL</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>1.029043251</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.001626428</v>
-      </c>
-      <c r="E21" t="n">
-        <v>2015</v>
-      </c>
-      <c r="F21" t="n">
-        <v>20.98</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1.61</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B22" t="inlineStr">
+        <v>21.13333333333334</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.706666666666667</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.032065229919913</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.001999473769647439</v>
+      </c>
+      <c r="K7" t="n">
+        <v>23.98234592652337</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.999473769647439</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>Magallanes</t>
         </is>
-      </c>
-      <c r="C22" t="n">
-        <v>1.276950533801404</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.001929639496109236</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1980</v>
-      </c>
-      <c r="F22" t="n">
-        <v>272.3250237735814</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1.929639496109236</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>1.26936281124498</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.003130669357115802</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1981</v>
-      </c>
-      <c r="F23" t="n">
-        <v>264.6118059778389</v>
-      </c>
-      <c r="G23" t="n">
-        <v>3.130669357115802</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>1.249150224072217</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.00186715687599629</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1982</v>
-      </c>
-      <c r="F24" t="n">
-        <v>244.3243448790737</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1.86715687599629</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>1.233779570539836</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.002314940835890187</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1983</v>
-      </c>
-      <c r="F25" t="n">
-        <v>228.8644172987753</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2.314940835890187</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>1.22612757111334</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.002694797116823591</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1984</v>
-      </c>
-      <c r="F26" t="n">
-        <v>221.0951859399077</v>
-      </c>
-      <c r="G26" t="n">
-        <v>2.694797116823591</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>1.213027342627884</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.002621288257892488</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1985</v>
-      </c>
-      <c r="F27" t="n">
-        <v>207.9026044167389</v>
-      </c>
-      <c r="G27" t="n">
-        <v>2.621288257892488</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>1.201527674091913</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.002214349820990297</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1986</v>
-      </c>
-      <c r="F28" t="n">
-        <v>196.3068016644041</v>
-      </c>
-      <c r="G28" t="n">
-        <v>2.214349820990297</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>1.197456415847543</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.001804633855215256</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1987</v>
-      </c>
-      <c r="F29" t="n">
-        <v>192.1090241882346</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1.804633855215255</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>1.176677102708124</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.0023590774984876</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1988</v>
-      </c>
-      <c r="F30" t="n">
-        <v>171.2808136234898</v>
-      </c>
-      <c r="G30" t="n">
-        <v>2.3590774984876</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>1.170061805416249</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.001887713737851329</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1989</v>
-      </c>
-      <c r="F31" t="n">
-        <v>164.5549779281237</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1.887713737851329</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>1.152030609628887</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.002658695035131468</v>
-      </c>
-      <c r="E32" t="n">
-        <v>1990</v>
-      </c>
-      <c r="F32" t="n">
-        <v>146.4699562318974</v>
-      </c>
-      <c r="G32" t="n">
-        <v>2.658695035131468</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>1.14750423439695</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.001705490709732197</v>
-      </c>
-      <c r="E33" t="n">
-        <v>1991</v>
-      </c>
-      <c r="F33" t="n">
-        <v>141.8273019788057</v>
-      </c>
-      <c r="G33" t="n">
-        <v>1.705490709732197</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>1.141506415245737</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.001925496412810534</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1992</v>
-      </c>
-      <c r="F34" t="n">
-        <v>135.7217667683726</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1.925496412810534</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>1.130559834704112</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.002527855219787863</v>
-      </c>
-      <c r="E35" t="n">
-        <v>1993</v>
-      </c>
-      <c r="F35" t="n">
-        <v>124.6946041347645</v>
-      </c>
-      <c r="G35" t="n">
-        <v>2.527855219787863</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>1.129006301424844</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.001675027620038616</v>
-      </c>
-      <c r="E36" t="n">
-        <v>1994</v>
-      </c>
-      <c r="F36" t="n">
-        <v>123.0132793103709</v>
-      </c>
-      <c r="G36" t="n">
-        <v>1.675027620038616</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>1.119271173520562</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.001721937539420681</v>
-      </c>
-      <c r="E37" t="n">
-        <v>1995</v>
-      </c>
-      <c r="F37" t="n">
-        <v>113.1951642579949</v>
-      </c>
-      <c r="G37" t="n">
-        <v>1.721937539420681</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>1.11342242888666</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.002218839638982156</v>
-      </c>
-      <c r="E38" t="n">
-        <v>1996</v>
-      </c>
-      <c r="F38" t="n">
-        <v>107.2442262389979</v>
-      </c>
-      <c r="G38" t="n">
-        <v>2.218839638982156</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>1.111990487662989</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.001723246116410542</v>
-      </c>
-      <c r="E39" t="n">
-        <v>1997</v>
-      </c>
-      <c r="F39" t="n">
-        <v>105.6864755349824</v>
-      </c>
-      <c r="G39" t="n">
-        <v>1.723246116410542</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>1.111121974714028</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.001725961371833794</v>
-      </c>
-      <c r="E40" t="n">
-        <v>1998</v>
-      </c>
-      <c r="F40" t="n">
-        <v>104.6892518353395</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1.725961371833794</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>1.099279271614845</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.00161378273294473</v>
-      </c>
-      <c r="E41" t="n">
-        <v>1999</v>
-      </c>
-      <c r="F41" t="n">
-        <v>92.78291666336513</v>
-      </c>
-      <c r="G41" t="n">
-        <v>1.61378273294473</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>1.092790168706119</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.002507956584256657</v>
-      </c>
-      <c r="E42" t="n">
-        <v>2000</v>
-      </c>
-      <c r="F42" t="n">
-        <v>86.20076417422263</v>
-      </c>
-      <c r="G42" t="n">
-        <v>2.507956584256657</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>1.090122570281125</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.002653776450760066</v>
-      </c>
-      <c r="E43" t="n">
-        <v>2001</v>
-      </c>
-      <c r="F43" t="n">
-        <v>83.41818978015358</v>
-      </c>
-      <c r="G43" t="n">
-        <v>2.653776450760066</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>1.094296181188699</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.001966868361546035</v>
-      </c>
-      <c r="E44" t="n">
-        <v>2001</v>
-      </c>
-      <c r="F44" t="n">
-        <v>87.56613249559075</v>
-      </c>
-      <c r="G44" t="n">
-        <v>1.966868361546035</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>1.083485158074223</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.001560192098842014</v>
-      </c>
-      <c r="E45" t="n">
-        <v>2002</v>
-      </c>
-      <c r="F45" t="n">
-        <v>76.69135088244494</v>
-      </c>
-      <c r="G45" t="n">
-        <v>1.560192098842013</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>1.089410990976539</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.001830964526222064</v>
-      </c>
-      <c r="E46" t="n">
-        <v>2002</v>
-      </c>
-      <c r="F46" t="n">
-        <v>82.58002686951515</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1.830964526222064</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>1.08148103552077</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.001599551906937112</v>
-      </c>
-      <c r="E47" t="n">
-        <v>2003</v>
-      </c>
-      <c r="F47" t="n">
-        <v>74.56980393115043</v>
-      </c>
-      <c r="G47" t="n">
-        <v>1.599551906937112</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>1.082803078986899</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.001897241451011176</v>
-      </c>
-      <c r="E48" t="n">
-        <v>2003</v>
-      </c>
-      <c r="F48" t="n">
-        <v>75.88339884546325</v>
-      </c>
-      <c r="G48" t="n">
-        <v>1.897241451011176</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>1.081351342089433</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.00182299240774073</v>
-      </c>
-      <c r="E49" t="n">
-        <v>2003</v>
-      </c>
-      <c r="F49" t="n">
-        <v>74.44093930892737</v>
-      </c>
-      <c r="G49" t="n">
-        <v>1.82299240774073</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>1.07608979145779</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.001819944584726866</v>
-      </c>
-      <c r="E50" t="n">
-        <v>2004</v>
-      </c>
-      <c r="F50" t="n">
-        <v>69.08368550149002</v>
-      </c>
-      <c r="G50" t="n">
-        <v>1.819944584726866</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>1.071840363405602</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.001877472263289263</v>
-      </c>
-      <c r="E51" t="n">
-        <v>2005</v>
-      </c>
-      <c r="F51" t="n">
-        <v>64.73312327438619</v>
-      </c>
-      <c r="G51" t="n">
-        <v>1.877472263289263</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>1.065067327651895</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.001874636773432127</v>
-      </c>
-      <c r="E52" t="n">
-        <v>2006</v>
-      </c>
-      <c r="F52" t="n">
-        <v>57.87702710318277</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1.874636773432127</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>1.06434917442505</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.001865143108390953</v>
-      </c>
-      <c r="E53" t="n">
-        <v>2007</v>
-      </c>
-      <c r="F53" t="n">
-        <v>57.03585233162145</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1.865143108390953</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>1.058777861640265</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.001737785863126135</v>
-      </c>
-      <c r="E54" t="n">
-        <v>2008</v>
-      </c>
-      <c r="F54" t="n">
-        <v>51.37563587285477</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1.737785863126135</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>1.058035694318373</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.001853123006479352</v>
-      </c>
-      <c r="E55" t="n">
-        <v>2009</v>
-      </c>
-      <c r="F55" t="n">
-        <v>50.51157668456319</v>
-      </c>
-      <c r="G55" t="n">
-        <v>1.853123006479352</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>1.05305343633447</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.001781955181633205</v>
-      </c>
-      <c r="E56" t="n">
-        <v>2010</v>
-      </c>
-      <c r="F56" t="n">
-        <v>45.43828268434691</v>
-      </c>
-      <c r="G56" t="n">
-        <v>1.781955181633206</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>1.050290796777225</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.002000915641416749</v>
-      </c>
-      <c r="E57" t="n">
-        <v>2011</v>
-      </c>
-      <c r="F57" t="n">
-        <v>42.56950132812176</v>
-      </c>
-      <c r="G57" t="n">
-        <v>2.000915641416749</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>1.039551882494486</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.001937480171743641</v>
-      </c>
-      <c r="E58" t="n">
-        <v>2012</v>
-      </c>
-      <c r="F58" t="n">
-        <v>31.78471983486619</v>
-      </c>
-      <c r="G58" t="n">
-        <v>1.937480171743641</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>1.043764326767827</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.001879433993315723</v>
-      </c>
-      <c r="E59" t="n">
-        <v>2013</v>
-      </c>
-      <c r="F59" t="n">
-        <v>35.84038442139192</v>
-      </c>
-      <c r="G59" t="n">
-        <v>1.879433993315723</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>1.04309537577702</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.001832952666712335</v>
-      </c>
-      <c r="E60" t="n">
-        <v>2013</v>
-      </c>
-      <c r="F60" t="n">
-        <v>35.17651190371196</v>
-      </c>
-      <c r="G60" t="n">
-        <v>1.832952666712335</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>1.032316233928213</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.001698608106166449</v>
-      </c>
-      <c r="E61" t="n">
-        <v>2014</v>
-      </c>
-      <c r="F61" t="n">
-        <v>24.35528558806843</v>
-      </c>
-      <c r="G61" t="n">
-        <v>1.698608106166449</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>1.032065229919913</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.001999473769647439</v>
-      </c>
-      <c r="E62" t="n">
-        <v>2015</v>
-      </c>
-      <c r="F62" t="n">
-        <v>23.98234592652337</v>
-      </c>
-      <c r="G62" t="n">
-        <v>1.999473769647439</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>1.026277387447363</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.001778138700353004</v>
-      </c>
-      <c r="E63" t="n">
-        <v>2016</v>
-      </c>
-      <c r="F63" t="n">
-        <v>18.11667067161004</v>
-      </c>
-      <c r="G63" t="n">
-        <v>1.778138700353004</v>
       </c>
     </row>
   </sheetData>
